--- a/houses sheff.xlsx
+++ b/houses sheff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BB6287-49FD-4420-9420-65D07AE00C2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486A6C8-E072-4913-BFAF-B0D325CC5B92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Company</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>299 SpringVale</t>
+  </si>
+  <si>
+    <t>https://www.sheffieldstudenthousing.co.uk/student-housing/18-beehive-road</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -896,7 +901,9 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1106,9 +1113,10 @@
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" display="https://www.rightmove.co.uk/student-accommodation/property-87259907.html?fbclid=IwAR30bLv8cnpOpDQKUuhpfyKUuQY6whGqxxslUmXZD1IlLbCPjMnZ8JUdHXg" xr:uid="{05466A1C-227E-4753-AD01-278702F28DBB}"/>
     <hyperlink ref="F14" r:id="rId2" display="https://www.rightmove.co.uk/student-accommodation/property-66953766.html?fbclid=IwAR2xSuv5TKpqE16O0M7Uub2r0prSslMpYZyMyS-_GqViuC7VVoQYeyXm3uI" xr:uid="{6E1912E0-68BE-4D9C-ADAA-1B09A5B65BAA}"/>
+    <hyperlink ref="F20" r:id="rId3" xr:uid="{99598013-ECBF-44FB-BBFA-64FD0595DE61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/houses sheff.xlsx
+++ b/houses sheff.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486A6C8-E072-4913-BFAF-B0D325CC5B92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1C052-D082-4F59-82C2-F30A29D2F9E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$A$36</definedName>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Company</t>
   </si>
@@ -47,9 +45,6 @@
     <t>per month</t>
   </si>
   <si>
-    <t>Jones Cameron</t>
-  </si>
-  <si>
     <t>pppw</t>
   </si>
   <si>
@@ -68,19 +63,7 @@
     <t>area</t>
   </si>
   <si>
-    <t>Jones camerons are all plungingtonish</t>
-  </si>
-  <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>Entwistle ones are nice but unfurnished</t>
-  </si>
-  <si>
-    <t>Stepping Stone</t>
-  </si>
-  <si>
-    <t>01772 824093</t>
   </si>
   <si>
     <t>https://www.smartmovesheffield.com/Advert/20995141</t>
@@ -567,14 +550,14 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="113.6640625" bestFit="1" customWidth="1"/>
@@ -588,10 +571,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
+      <c r="D1">
         <f>IF(C1="per week",B1/3,B1*12/52/3)</f>
         <v>87</v>
       </c>
@@ -604,41 +584,41 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -648,13 +628,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -664,13 +644,13 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -680,13 +660,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -696,15 +676,15 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -714,15 +694,15 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -732,13 +712,13 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -748,13 +728,13 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -764,13 +744,13 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -780,17 +760,17 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <v>76.150000000000006</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -800,13 +780,13 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -818,11 +798,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -832,13 +812,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -848,15 +828,15 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -866,13 +846,13 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -882,13 +862,13 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -902,7 +882,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1106,7 +1086,7 @@
     <sortCondition descending="1" ref="C10"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"per week, per month"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1118,62 +1098,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50778370-D191-4D6D-BF45-3E06862ABA10}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1772888887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>